--- a/uploads/test.xlsx
+++ b/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahul\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADB05D12-1859-43CB-8962-27E553DEA47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F86AF6-E5C3-4485-9CB1-0D623C45EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CAFEB15-3D62-4F31-8567-74EE4CE84131}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>9953624529</v>
+        <v>8383070452</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
